--- a/storage/excel/imports/rep.xlsx
+++ b/storage/excel/imports/rep.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12915"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -345,6 +345,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,9 +740,7 @@
       <c r="Q2" s="10">
         <v>3863.03</v>
       </c>
-      <c r="R2" s="10">
-        <v>5211.25</v>
-      </c>
+      <c r="R2" s="10"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2">
         <v>1348.2199999999998</v>
@@ -797,9 +796,7 @@
       <c r="Q3" s="10">
         <v>2817.22</v>
       </c>
-      <c r="R3" s="10">
-        <v>12681.71</v>
-      </c>
+      <c r="R3" s="10"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2">
         <v>9864.49</v>
@@ -845,14 +842,14 @@
         <v>1</v>
       </c>
       <c r="Q4" s="10">
-        <v>8790.89</v>
+        <v>8444.5499999999993</v>
       </c>
       <c r="R4" s="10">
         <v>8444.5499999999993</v>
       </c>
       <c r="S4" s="2">
         <f>(R4-Q4)*-1</f>
-        <v>346.34000000000015</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="1" t="s">
@@ -910,14 +907,14 @@
         <v>8</v>
       </c>
       <c r="Q5" s="3">
-        <v>14074.43</v>
+        <v>10430.82</v>
       </c>
       <c r="R5" s="3">
         <v>10430.82</v>
       </c>
       <c r="S5" s="2">
         <f>(R5-Q5)*-1</f>
-        <v>3643.6100000000006</v>
+        <v>0</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="1" t="s">
@@ -963,9 +960,7 @@
       <c r="Q6" s="3">
         <v>1020</v>
       </c>
-      <c r="R6" s="3">
-        <v>6004.82</v>
-      </c>
+      <c r="R6" s="3"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2">
         <v>4984.82</v>
@@ -973,6 +968,9 @@
       <c r="U6" s="1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q8" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/excel/imports/rep.xlsx
+++ b/storage/excel/imports/rep.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12915"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +249,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -345,7 +353,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,8 +977,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q8" s="19"/>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P10" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
